--- a/ig/anomalies/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-psychiatric-sector</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-psychiatric-sector</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-04-11T09:40:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR qui correspond à une aire géographique à laquelle sont rattachées des structures de relais et de soins qui prennent en charge des patients résidants sur ce secteur.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>79</v>

--- a/ig/anomalies/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:40:11+00:00</t>
+    <t>2023-04-12T13:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T13:10:15+00:00</t>
+    <t>2023-04-12T14:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:18:07+00:00</t>
+    <t>2023-04-12T14:39:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:39:26+00:00</t>
+    <t>2023-04-12T15:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
